--- a/household-counts/outputs/household_counts_by_state_2024.xlsx
+++ b/household-counts/outputs/household_counts_by_state_2024.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
   <si>
     <t xml:space="preserve">GEOID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop</t>
   </si>
   <si>
     <t xml:space="preserve">units_total</t>
@@ -806,4008 +809,4167 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
+        <v>5157699</v>
+      </c>
+      <c r="D2" t="n">
         <v>2059528</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>1461271</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1250940</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>24077</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>1312</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>3334</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>1663</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>1631</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>2345</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>2006</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>168734</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>5229</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>598257</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>226252</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>18444</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>33256</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>58267</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>75806</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>54688</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>27645</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>42628</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>58967</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>2304</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
+        <v>740133</v>
+      </c>
+      <c r="D3" t="n">
         <v>274045</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>182292</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>149310</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>13031</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>4561</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>2451</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>1535</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>1521</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>1492</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>900</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>6910</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>581</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>91753</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>24049</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>10523</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>10949</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>15728</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>11748</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>4388</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>9047</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>3218</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>2032</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
+        <v>7582384</v>
+      </c>
+      <c r="D4" t="n">
         <v>2982475</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>2020822</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1659808</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>102908</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>3795</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>12772</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>10996</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>7361</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>5773</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>11857</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>195929</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>9623</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>961653</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>305441</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>54424</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>32649</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>75331</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>84078</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>102085</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>64624</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>196136</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>44081</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>2804</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
+        <v>3088354</v>
+      </c>
+      <c r="D5" t="n">
         <v>1246754</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>836697</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>730795</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>7090</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>1202</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>1864</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>1076</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>704</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>252</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>633</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>90880</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>2201</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>410057</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>160356</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>16825</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>32473</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>38271</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>43838</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>47108</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>19054</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>20504</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>30586</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>1042</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
+        <v>39431263</v>
+      </c>
+      <c r="D6" t="n">
         <v>13797638</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>7701876</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>6284014</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>591987</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>54521</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>92378</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>91783</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>66307</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>68212</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>104114</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>335789</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>12771</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>6095762</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>1635797</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>447364</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>272726</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>668655</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>676602</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>589687</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>609254</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>1075487</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>111281</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>8909</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
+        <v>5957494</v>
+      </c>
+      <c r="D7" t="n">
         <v>2479892</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>1635345</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>1344674</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>130544</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>5817</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>17981</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>25870</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>17913</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>17492</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>13959</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>59646</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>1449</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>844547</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>197088</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>63611</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>24218</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>62311</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>81041</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>124492</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>104222</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>166856</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>19847</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
         <v>861</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
+        <v>3675069</v>
+      </c>
+      <c r="D8" t="n">
         <v>1455235</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>970236</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>797157</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>65243</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>32500</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>23336</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>18950</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>8955</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>8188</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>9393</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>6514</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>0</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>484999</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>61999</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>34640</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>63475</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>94541</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>49496</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>40395</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>48886</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>88200</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>3367</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
+        <v>1051917</v>
+      </c>
+      <c r="D9" t="n">
         <v>412304</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>304189</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>231861</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>43003</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>514</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>642</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>1722</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>1790</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>1892</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>1079</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>21605</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>81</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>108115</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>20197</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>19299</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>6904</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>6844</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>12657</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>18116</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>7361</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>11227</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>5510</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
+        <v>702250</v>
+      </c>
+      <c r="D10" t="n">
         <v>329687</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>134836</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>32953</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>54198</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>3532</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>5188</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>4057</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>6061</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>8512</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>20297</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>0</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>38</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>194851</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>3043</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>16013</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>6239</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>17955</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>14701</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>19846</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>19725</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>97125</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
         <v>204</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Z10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="n">
+        <v>23372215</v>
+      </c>
+      <c r="D11" t="n">
         <v>9141675</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>6220116</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>4580094</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>468170</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>28507</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>86274</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>103034</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>95575</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>130571</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>213473</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>500491</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>13927</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>2921559</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>715177</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>212690</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>132437</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>234078</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>287612</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>379990</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>305971</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>512667</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>136254</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Z11" t="n">
         <v>4683</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
+        <v>11180878</v>
+      </c>
+      <c r="D12" t="n">
         <v>4220732</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>2798409</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2392932</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>135537</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>4809</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>13252</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>12408</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>9099</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>7171</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>23731</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>195525</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>3945</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>1422323</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>464536</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>67460</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>72157</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>117028</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>149756</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>155486</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>96038</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>198737</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>99251</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
         <v>1874</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="n">
+        <v>1446146</v>
+      </c>
+      <c r="D13" t="n">
         <v>493151</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>304026</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>215426</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>22806</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>2115</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>6960</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>9789</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>6536</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>9105</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>30352</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>839</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>98</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>189125</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>55968</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>26029</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>6100</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>13424</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>18705</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>16109</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>13910</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>38274</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>309</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Z13" t="n">
         <v>297</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" t="n">
+        <v>2001619</v>
+      </c>
+      <c r="D14" t="n">
         <v>751181</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>538468</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>480605</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>14456</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>1559</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>2273</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>1116</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>606</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>401</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>32</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>35341</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>2079</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>212713</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>75062</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>15662</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>11711</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>30035</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>22787</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>14717</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>15764</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>14940</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>11536</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Z14" t="n">
         <v>499</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" t="n">
+        <v>12710158</v>
+      </c>
+      <c r="D15" t="n">
         <v>5105448</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>3449961</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>2700285</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>245635</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>92104</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>73501</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>63357</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>44096</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>59410</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>92607</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>77808</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>1158</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>1655487</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>326487</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>81355</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>135516</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>239720</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>239307</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>159082</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>136749</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>311456</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>25038</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Z15" t="n">
         <v>777</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="n">
+        <v>6924275</v>
+      </c>
+      <c r="D16" t="n">
         <v>2775637</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>1962896</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1794213</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>70405</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>6187</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>7704</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>4397</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>1848</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>1903</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>1507</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>73763</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>969</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>812741</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>253617</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>44632</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>46950</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>86032</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>120625</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>86941</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>59450</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>79878</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>33100</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="n">
         <v>1516</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" t="n">
+        <v>3241488</v>
+      </c>
+      <c r="D17" t="n">
         <v>1343422</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>958213</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>862883</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>42425</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>2815</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>5188</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>3222</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>5044</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>3124</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>1763</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>31334</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>415</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>385209</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>117660</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>22544</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>20831</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>42191</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>41221</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>45899</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>49065</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>37998</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
         <v>7657</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Z17" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" t="n">
+        <v>2970606</v>
+      </c>
+      <c r="D18" t="n">
         <v>1204374</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>820255</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>754798</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>25486</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>2122</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>2119</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>1328</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>618</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>1163</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>667</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>30458</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>1496</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>384119</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>124386</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>37321</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>20331</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>37404</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>43537</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>45308</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>29653</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>32498</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Y18" t="n">
         <v>12803</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Z18" t="n">
         <v>878</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" t="n">
+        <v>4588372</v>
+      </c>
+      <c r="D19" t="n">
         <v>1865456</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>1270744</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1077790</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>32184</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>4355</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>4320</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>5979</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>6260</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>3729</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>1478</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>132473</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>2176</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>594712</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>193528</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>28543</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>44163</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>71947</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>73522</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>60070</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>35919</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>39103</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Y19" t="n">
         <v>47037</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Z19" t="n">
         <v>880</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" t="n">
+        <v>4597740</v>
+      </c>
+      <c r="D20" t="n">
         <v>1848965</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>1258598</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1055925</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>24845</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>6702</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>5405</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>2820</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>1664</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>1204</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>3639</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>154437</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>1957</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>590367</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>205397</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>30688</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>50036</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>71357</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>48400</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>45216</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>31915</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>49662</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Y20" t="n">
         <v>56002</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Z20" t="n">
         <v>1694</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" t="n">
+        <v>1405012</v>
+      </c>
+      <c r="D21" t="n">
         <v>615235</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>451090</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>378580</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>11043</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>10791</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>3609</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>1714</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>1282</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>772</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>889</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>41940</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>470</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>164145</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>32435</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>5404</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>22532</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>32587</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>24233</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>12371</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>13094</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>9821</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Y21" t="n">
         <v>11364</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Z21" t="n">
         <v>304</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" t="n">
+        <v>6263220</v>
+      </c>
+      <c r="D22" t="n">
         <v>2401394</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>1628167</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>1143058</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>372552</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>4562</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>4466</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>13814</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>29182</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>14500</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>24018</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>21615</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>400</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>773227</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>108023</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>146150</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>26787</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>42100</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>100081</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>137307</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>37201</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>165949</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Y22" t="n">
         <v>9215</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Z22" t="n">
         <v>414</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" t="n">
+        <v>7136171</v>
+      </c>
+      <c r="D23" t="n">
         <v>2829804</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>1765324</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>1343953</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>111400</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>105357</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>71023</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>30723</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>22201</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>26889</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>35496</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>17580</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>702</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>1064480</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>90915</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>61659</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>147773</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>231609</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>121820</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>96759</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>105217</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>203627</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Y23" t="n">
         <v>4817</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Z23" t="n">
         <v>284</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" t="n">
+        <v>10140459</v>
+      </c>
+      <c r="D24" t="n">
         <v>4131281</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>3034798</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>2675492</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>142506</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>14374</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>14609</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>17064</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>9872</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>5062</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>5762</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>148773</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>1284</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>1096483</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>314266</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>68841</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>65357</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>89171</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>160000</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>140269</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>88269</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>126301</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Y24" t="n">
         <v>43259</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="Z24" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" t="n">
+        <v>5793151</v>
+      </c>
+      <c r="D25" t="n">
         <v>2363442</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>1692435</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>1435986</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>134897</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>11554</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>7780</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>8070</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>5246</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>14583</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>26650</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>46633</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>1036</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>671007</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
         <v>111440</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>46913</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>36418</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>38808</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>41225</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>72225</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>107270</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>207795</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
         <v>8527</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Z25" t="n">
         <v>386</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" t="n">
+        <v>2943045</v>
+      </c>
+      <c r="D26" t="n">
         <v>1176690</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>829682</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>696862</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>7627</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>699</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>731</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>1079</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>264</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>458</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>297</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>119822</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>1843</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>347008</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>141891</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>8191</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>27219</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>32460</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>46315</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>23243</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>12117</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>19505</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Y26" t="n">
         <v>35482</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Z26" t="n">
         <v>585</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" t="n">
+        <v>6245466</v>
+      </c>
+      <c r="D27" t="n">
         <v>2563244</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>1757433</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>1576243</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>53252</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>10310</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>5734</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>7051</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>6521</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>6774</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>5187</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>81932</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>4429</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>805811</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>263947</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>56949</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>63750</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>102739</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>76892</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>71079</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>50855</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>83564</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
         <v>34948</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Z27" t="n">
         <v>1088</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28" t="n">
+        <v>1137233</v>
+      </c>
+      <c r="D28" t="n">
         <v>468981</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>321733</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>270991</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>12016</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>2132</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>2054</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>1628</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>1335</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>384</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>127</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>30109</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>957</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>147248</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>45523</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>11870</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>10566</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>21497</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>12530</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>12223</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>11631</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>9713</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Y28" t="n">
         <v>11443</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="Z28" t="n">
         <v>252</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" t="n">
+        <v>2005466</v>
+      </c>
+      <c r="D29" t="n">
         <v>824012</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>549417</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>513110</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>17897</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>1405</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>999</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>319</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>638</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>1049</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>1624</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>12008</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>368</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>274595</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>80194</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>16260</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>12076</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>18392</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>30658</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>39695</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>31954</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>38893</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Y29" t="n">
         <v>6417</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="Z29" t="n">
         <v>56</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C30" t="n">
+        <v>3267467</v>
+      </c>
+      <c r="D30" t="n">
         <v>1238925</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>744844</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>618612</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>45546</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>847</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>10677</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>10244</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>3431</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>1522</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>6154</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>45856</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>1955</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>494081</v>
       </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
         <v>153913</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
         <v>25953</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>14237</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>56786</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>67790</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>45507</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>29244</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>84700</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Y30" t="n">
         <v>15464</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="Z30" t="n">
         <v>487</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C31" t="n">
+        <v>1409032</v>
+      </c>
+      <c r="D31" t="n">
         <v>570689</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>414145</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>337860</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>21360</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>8357</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>3904</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>3791</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>2747</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>6145</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>2187</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>27533</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>261</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>156544</v>
       </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
         <v>18332</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="R31" t="n">
         <v>8466</v>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>17497</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>28968</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>19550</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>14763</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>29022</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>15568</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Y31" t="n">
         <v>4035</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="Z31" t="n">
         <v>343</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32" t="n">
+        <v>9500851</v>
+      </c>
+      <c r="D32" t="n">
         <v>3543944</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>2264820</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>1740383</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>241184</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>97007</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>37600</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>33021</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>25760</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>23312</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>41245</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>24589</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>719</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>1279124</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
         <v>136150</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="R32" t="n">
         <v>94914</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>195393</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>176963</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>129603</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>143064</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>126313</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>270494</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Y32" t="n">
         <v>5222</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="Z32" t="n">
         <v>1008</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C33" t="n">
+        <v>2130256</v>
+      </c>
+      <c r="D33" t="n">
         <v>856970</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>608986</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>480675</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>22600</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>1281</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>1934</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>2009</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>1365</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>496</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>1388</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>94343</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>2895</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>247984</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
         <v>83241</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
         <v>12886</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>13648</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>32613</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>22339</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>17004</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>15216</v>
       </c>
-      <c r="W33" t="n">
+      <c r="X33" t="n">
         <v>22964</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Y33" t="n">
         <v>26974</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="Z33" t="n">
         <v>1099</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C34" t="n">
+        <v>19867248</v>
+      </c>
+      <c r="D34" t="n">
         <v>7828074</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>4252571</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>2930193</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>321573</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>273433</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>91370</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>52494</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>50910</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>106724</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>306362</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>117546</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>1966</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>3575503</v>
       </c>
-      <c r="P34" t="n">
+      <c r="Q34" t="n">
         <v>299322</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="R34" t="n">
         <v>113903</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>431659</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>438328</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>365947</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>300223</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>588160</v>
       </c>
-      <c r="W34" t="n">
+      <c r="X34" t="n">
         <v>1001547</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Y34" t="n">
         <v>35007</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="Z34" t="n">
         <v>1407</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" t="n">
+        <v>11046024</v>
+      </c>
+      <c r="D35" t="n">
         <v>4496359</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>3004713</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>2509636</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>146479</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>5683</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>9760</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>11925</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>8066</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>7536</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>6880</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>295640</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>3108</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>1491646</v>
       </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
         <v>461077</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="R35" t="n">
         <v>92818</v>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>75917</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
         <v>109035</v>
       </c>
-      <c r="T35" t="n">
+      <c r="U35" t="n">
         <v>154319</v>
       </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
         <v>178166</v>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>118803</v>
       </c>
-      <c r="W35" t="n">
+      <c r="X35" t="n">
         <v>145976</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Y35" t="n">
         <v>152664</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="Z35" t="n">
         <v>2871</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C36" t="n">
+        <v>796568</v>
+      </c>
+      <c r="D36" t="n">
         <v>349705</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>213886</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>177308</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>15796</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>723</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>2029</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>1420</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>1141</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>1130</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>528</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>13754</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>57</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>135819</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>19893</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>9374</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>4709</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>10434</v>
       </c>
-      <c r="T36" t="n">
+      <c r="U36" t="n">
         <v>9765</v>
       </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>19282</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>36096</v>
       </c>
-      <c r="W36" t="n">
+      <c r="X36" t="n">
         <v>22588</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Y36" t="n">
         <v>3678</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="Z36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C37" t="n">
+        <v>11883304</v>
+      </c>
+      <c r="D37" t="n">
         <v>4929322</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>3351814</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>3004535</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>142582</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>26616</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>21826</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>16252</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>11593</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>7177</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>10048</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>108833</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>2352</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>1577508</v>
       </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
         <v>459393</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>112884</v>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>130174</v>
       </c>
-      <c r="S37" t="n">
+      <c r="T37" t="n">
         <v>172248</v>
       </c>
-      <c r="T37" t="n">
+      <c r="U37" t="n">
         <v>199819</v>
       </c>
-      <c r="U37" t="n">
+      <c r="V37" t="n">
         <v>166873</v>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>100564</v>
       </c>
-      <c r="W37" t="n">
+      <c r="X37" t="n">
         <v>192919</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Y37" t="n">
         <v>41924</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="Z37" t="n">
         <v>710</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C38" t="n">
+        <v>4095393</v>
+      </c>
+      <c r="D38" t="n">
         <v>1603748</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>1053182</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>941345</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>13428</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>1371</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>2122</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>1892</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>684</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>690</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>1152</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>86763</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>3735</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>550566</v>
       </c>
-      <c r="P38" t="n">
+      <c r="Q38" t="n">
         <v>243484</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="R38" t="n">
         <v>25399</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>24825</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>45789</v>
       </c>
-      <c r="T38" t="n">
+      <c r="U38" t="n">
         <v>57925</v>
       </c>
-      <c r="U38" t="n">
+      <c r="V38" t="n">
         <v>47809</v>
       </c>
-      <c r="V38" t="n">
+      <c r="W38" t="n">
         <v>27825</v>
       </c>
-      <c r="W38" t="n">
+      <c r="X38" t="n">
         <v>45084</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Y38" t="n">
         <v>30606</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="Z38" t="n">
         <v>1820</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C39" t="n">
+        <v>4272371</v>
+      </c>
+      <c r="D39" t="n">
         <v>1744270</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>1100905</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>929337</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>46322</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>4175</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>5751</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>4677</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>2922</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>3844</v>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>6069</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>92999</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>4809</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>643365</v>
       </c>
-      <c r="P39" t="n">
+      <c r="Q39" t="n">
         <v>168164</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="R39" t="n">
         <v>48200</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>33155</v>
       </c>
-      <c r="S39" t="n">
+      <c r="T39" t="n">
         <v>70959</v>
       </c>
-      <c r="T39" t="n">
+      <c r="U39" t="n">
         <v>68929</v>
       </c>
-      <c r="U39" t="n">
+      <c r="V39" t="n">
         <v>64922</v>
       </c>
-      <c r="V39" t="n">
+      <c r="W39" t="n">
         <v>58956</v>
       </c>
-      <c r="W39" t="n">
+      <c r="X39" t="n">
         <v>105837</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Y39" t="n">
         <v>22452</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="Z39" t="n">
         <v>1791</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C40" t="n">
+        <v>13078751</v>
+      </c>
+      <c r="D40" t="n">
         <v>5361724</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>3713956</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>2766277</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>707799</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>32859</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>13846</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>12141</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>13131</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>11175</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>26879</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>128369</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>1480</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>1647768</v>
       </c>
-      <c r="P40" t="n">
+      <c r="Q40" t="n">
         <v>290813</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="R40" t="n">
         <v>310206</v>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>184505</v>
       </c>
-      <c r="S40" t="n">
+      <c r="T40" t="n">
         <v>198249</v>
       </c>
-      <c r="T40" t="n">
+      <c r="U40" t="n">
         <v>150875</v>
       </c>
-      <c r="U40" t="n">
+      <c r="V40" t="n">
         <v>127294</v>
       </c>
-      <c r="V40" t="n">
+      <c r="W40" t="n">
         <v>116599</v>
       </c>
-      <c r="W40" t="n">
+      <c r="X40" t="n">
         <v>226342</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Y40" t="n">
         <v>42256</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="Z40" t="n">
         <v>629</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C41" t="n">
+        <v>3203295</v>
+      </c>
+      <c r="D41" t="n">
         <v>1242609</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>861048</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>697823</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>76999</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>15764</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>7617</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>18436</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>10700</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>8520</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>24373</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>711</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>105</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>381561</v>
       </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
         <v>168321</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="R41" t="n">
         <v>57178</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>17501</v>
       </c>
-      <c r="S41" t="n">
+      <c r="T41" t="n">
         <v>25853</v>
       </c>
-      <c r="T41" t="n">
+      <c r="U41" t="n">
         <v>45255</v>
       </c>
-      <c r="U41" t="n">
+      <c r="V41" t="n">
         <v>33386</v>
       </c>
-      <c r="V41" t="n">
+      <c r="W41" t="n">
         <v>9707</v>
       </c>
-      <c r="W41" t="n">
+      <c r="X41" t="n">
         <v>24059</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Y41" t="n">
         <v>301</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="Z41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C42" t="n">
+        <v>1112308</v>
+      </c>
+      <c r="D42" t="n">
         <v>448318</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>284679</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>235659</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>10991</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>17613</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>7734</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>3372</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>2046</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>1786</v>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
         <v>1902</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>3267</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>309</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>163639</v>
       </c>
-      <c r="P42" t="n">
+      <c r="Q42" t="n">
         <v>18133</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="R42" t="n">
         <v>6413</v>
       </c>
-      <c r="R42" t="n">
+      <c r="S42" t="n">
         <v>27342</v>
       </c>
-      <c r="S42" t="n">
+      <c r="T42" t="n">
         <v>40786</v>
       </c>
-      <c r="T42" t="n">
+      <c r="U42" t="n">
         <v>20140</v>
       </c>
-      <c r="U42" t="n">
+      <c r="V42" t="n">
         <v>12682</v>
       </c>
-      <c r="V42" t="n">
+      <c r="W42" t="n">
         <v>12547</v>
       </c>
-      <c r="W42" t="n">
+      <c r="X42" t="n">
         <v>25365</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Y42" t="n">
         <v>231</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="Z42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C43" t="n">
+        <v>5478831</v>
+      </c>
+      <c r="D43" t="n">
         <v>2222890</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>1607358</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>1316661</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>60014</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>2820</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>8442</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>9013</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>7809</v>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>4617</v>
       </c>
-      <c r="L43" t="n">
+      <c r="M43" t="n">
         <v>3123</v>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>192386</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>2473</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>615532</v>
       </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
         <v>192019</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="R43" t="n">
         <v>31147</v>
       </c>
-      <c r="R43" t="n">
+      <c r="S43" t="n">
         <v>30469</v>
       </c>
-      <c r="S43" t="n">
+      <c r="T43" t="n">
         <v>51651</v>
       </c>
-      <c r="T43" t="n">
+      <c r="U43" t="n">
         <v>64507</v>
       </c>
-      <c r="U43" t="n">
+      <c r="V43" t="n">
         <v>63697</v>
       </c>
-      <c r="V43" t="n">
+      <c r="W43" t="n">
         <v>48294</v>
       </c>
-      <c r="W43" t="n">
+      <c r="X43" t="n">
         <v>54607</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Y43" t="n">
         <v>77628</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="Z43" t="n">
         <v>1513</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C44" t="n">
+        <v>924669</v>
+      </c>
+      <c r="D44" t="n">
         <v>382302</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>261078</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>224953</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>11571</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>549</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>1460</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>256</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>1140</v>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>407</v>
       </c>
-      <c r="L44" t="n">
+      <c r="M44" t="n">
         <v>463</v>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>19924</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>355</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>121224</v>
       </c>
-      <c r="P44" t="n">
+      <c r="Q44" t="n">
         <v>28223</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="R44" t="n">
         <v>8245</v>
       </c>
-      <c r="R44" t="n">
+      <c r="S44" t="n">
         <v>3934</v>
       </c>
-      <c r="S44" t="n">
+      <c r="T44" t="n">
         <v>12006</v>
       </c>
-      <c r="T44" t="n">
+      <c r="U44" t="n">
         <v>13594</v>
       </c>
-      <c r="U44" t="n">
+      <c r="V44" t="n">
         <v>14062</v>
       </c>
-      <c r="V44" t="n">
+      <c r="W44" t="n">
         <v>20513</v>
       </c>
-      <c r="W44" t="n">
+      <c r="X44" t="n">
         <v>13996</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Y44" t="n">
         <v>6532</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="Z44" t="n">
         <v>119</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C45" t="n">
+        <v>7227750</v>
+      </c>
+      <c r="D45" t="n">
         <v>2928765</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>1957004</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>1691012</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>77933</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>7224</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>6600</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>6714</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>3908</v>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>4640</v>
       </c>
-      <c r="L45" t="n">
+      <c r="M45" t="n">
         <v>5738</v>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>147435</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>5800</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>971761</v>
       </c>
-      <c r="P45" t="n">
+      <c r="Q45" t="n">
         <v>331442</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="R45" t="n">
         <v>52857</v>
       </c>
-      <c r="R45" t="n">
+      <c r="S45" t="n">
         <v>58266</v>
       </c>
-      <c r="S45" t="n">
+      <c r="T45" t="n">
         <v>79088</v>
       </c>
-      <c r="T45" t="n">
+      <c r="U45" t="n">
         <v>106361</v>
       </c>
-      <c r="U45" t="n">
+      <c r="V45" t="n">
         <v>105456</v>
       </c>
-      <c r="V45" t="n">
+      <c r="W45" t="n">
         <v>64627</v>
       </c>
-      <c r="W45" t="n">
+      <c r="X45" t="n">
         <v>109393</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Y45" t="n">
         <v>62950</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="Z45" t="n">
         <v>1321</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C46" t="n">
+        <v>31290831</v>
+      </c>
+      <c r="D46" t="n">
         <v>11449769</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>7134877</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>6341786</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>170398</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>15902</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>23443</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>16730</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>10814</v>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>14993</v>
       </c>
-      <c r="L46" t="n">
+      <c r="M46" t="n">
         <v>31762</v>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>486644</v>
       </c>
-      <c r="N46" t="n">
+      <c r="O46" t="n">
         <v>22405</v>
       </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
         <v>4314892</v>
       </c>
-      <c r="P46" t="n">
+      <c r="Q46" t="n">
         <v>1173103</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="R46" t="n">
         <v>164422</v>
       </c>
-      <c r="R46" t="n">
+      <c r="S46" t="n">
         <v>178594</v>
       </c>
-      <c r="S46" t="n">
+      <c r="T46" t="n">
         <v>355404</v>
       </c>
-      <c r="T46" t="n">
+      <c r="U46" t="n">
         <v>447439</v>
       </c>
-      <c r="U46" t="n">
+      <c r="V46" t="n">
         <v>536231</v>
       </c>
-      <c r="V46" t="n">
+      <c r="W46" t="n">
         <v>378665</v>
       </c>
-      <c r="W46" t="n">
+      <c r="X46" t="n">
         <v>898181</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Y46" t="n">
         <v>175146</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="Z46" t="n">
         <v>7707</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C47" t="n">
+        <v>3503613</v>
+      </c>
+      <c r="D47" t="n">
         <v>1184428</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>824019</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>704735</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>61858</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>5401</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>6036</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>7384</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>5903</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3942</v>
       </c>
       <c r="L47" t="n">
         <v>3942</v>
       </c>
       <c r="M47" t="n">
+        <v>3942</v>
+      </c>
+      <c r="N47" t="n">
         <v>24449</v>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>369</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>360409</v>
       </c>
-      <c r="P47" t="n">
+      <c r="Q47" t="n">
         <v>75726</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="R47" t="n">
         <v>41416</v>
       </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>25149</v>
       </c>
-      <c r="S47" t="n">
+      <c r="T47" t="n">
         <v>40957</v>
       </c>
-      <c r="T47" t="n">
+      <c r="U47" t="n">
         <v>35095</v>
       </c>
-      <c r="U47" t="n">
+      <c r="V47" t="n">
         <v>41265</v>
       </c>
-      <c r="V47" t="n">
+      <c r="W47" t="n">
         <v>31273</v>
       </c>
-      <c r="W47" t="n">
+      <c r="X47" t="n">
         <v>60100</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Y47" t="n">
         <v>8664</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="Z47" t="n">
         <v>764</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C48" t="n">
+        <v>648493</v>
+      </c>
+      <c r="D48" t="n">
         <v>285548</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>209117</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>175278</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>8231</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>3726</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>2832</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>1209</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>507</v>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>926</v>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
         <v>412</v>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>15760</v>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>236</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>76431</v>
       </c>
-      <c r="P48" t="n">
+      <c r="Q48" t="n">
         <v>16138</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="R48" t="n">
         <v>2769</v>
       </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
         <v>11782</v>
       </c>
-      <c r="S48" t="n">
+      <c r="T48" t="n">
         <v>15177</v>
       </c>
-      <c r="T48" t="n">
+      <c r="U48" t="n">
         <v>9178</v>
       </c>
-      <c r="U48" t="n">
+      <c r="V48" t="n">
         <v>4073</v>
       </c>
-      <c r="V48" t="n">
+      <c r="W48" t="n">
         <v>8933</v>
       </c>
-      <c r="W48" t="n">
+      <c r="X48" t="n">
         <v>5827</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Y48" t="n">
         <v>2510</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="Z48" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C49" t="n">
+        <v>8811195</v>
+      </c>
+      <c r="D49" t="n">
         <v>3449307</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>2315258</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>1830496</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>284358</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>7218</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>11665</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>19618</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>21169</v>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>11456</v>
       </c>
-      <c r="L49" t="n">
+      <c r="M49" t="n">
         <v>31833</v>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>96169</v>
       </c>
-      <c r="N49" t="n">
+      <c r="O49" t="n">
         <v>1276</v>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>1134049</v>
       </c>
-      <c r="P49" t="n">
+      <c r="Q49" t="n">
         <v>273719</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="R49" t="n">
         <v>131408</v>
       </c>
-      <c r="R49" t="n">
+      <c r="S49" t="n">
         <v>40564</v>
       </c>
-      <c r="S49" t="n">
+      <c r="T49" t="n">
         <v>90372</v>
       </c>
-      <c r="T49" t="n">
+      <c r="U49" t="n">
         <v>126649</v>
       </c>
-      <c r="U49" t="n">
+      <c r="V49" t="n">
         <v>155890</v>
       </c>
-      <c r="V49" t="n">
+      <c r="W49" t="n">
         <v>66443</v>
       </c>
-      <c r="W49" t="n">
+      <c r="X49" t="n">
         <v>206391</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Y49" t="n">
         <v>42252</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="Z49" t="n">
         <v>361</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C50" t="n">
+        <v>7958180</v>
+      </c>
+      <c r="D50" t="n">
         <v>3168080</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>1992341</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>1677476</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>77629</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>9338</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>15590</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>18752</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>18020</v>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>18335</v>
       </c>
-      <c r="L50" t="n">
+      <c r="M50" t="n">
         <v>18297</v>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>130431</v>
       </c>
-      <c r="N50" t="n">
+      <c r="O50" t="n">
         <v>8473</v>
       </c>
-      <c r="O50" t="n">
+      <c r="P50" t="n">
         <v>1175739</v>
       </c>
-      <c r="P50" t="n">
+      <c r="Q50" t="n">
         <v>264548</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="R50" t="n">
         <v>69049</v>
       </c>
-      <c r="R50" t="n">
+      <c r="S50" t="n">
         <v>58645</v>
       </c>
-      <c r="S50" t="n">
+      <c r="T50" t="n">
         <v>95079</v>
       </c>
-      <c r="T50" t="n">
+      <c r="U50" t="n">
         <v>117341</v>
       </c>
-      <c r="U50" t="n">
+      <c r="V50" t="n">
         <v>137190</v>
       </c>
-      <c r="V50" t="n">
+      <c r="W50" t="n">
         <v>139640</v>
       </c>
-      <c r="W50" t="n">
+      <c r="X50" t="n">
         <v>257487</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Y50" t="n">
         <v>33111</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="Z50" t="n">
         <v>3649</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C51" t="n">
+        <v>1769979</v>
+      </c>
+      <c r="D51" t="n">
         <v>740840</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>559415</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>471164</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>12675</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>1698</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>1026</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>1032</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>222</v>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>802</v>
       </c>
-      <c r="L51" t="n">
+      <c r="M51" t="n">
         <v>356</v>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>69879</v>
       </c>
-      <c r="N51" t="n">
+      <c r="O51" t="n">
         <v>561</v>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>181425</v>
       </c>
-      <c r="P51" t="n">
+      <c r="Q51" t="n">
         <v>65608</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="R51" t="n">
         <v>8869</v>
       </c>
-      <c r="R51" t="n">
+      <c r="S51" t="n">
         <v>10790</v>
       </c>
-      <c r="S51" t="n">
+      <c r="T51" t="n">
         <v>20226</v>
       </c>
-      <c r="T51" t="n">
+      <c r="U51" t="n">
         <v>19229</v>
       </c>
-      <c r="U51" t="n">
+      <c r="V51" t="n">
         <v>11287</v>
       </c>
-      <c r="V51" t="n">
+      <c r="W51" t="n">
         <v>9297</v>
       </c>
-      <c r="W51" t="n">
+      <c r="X51" t="n">
         <v>12643</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Y51" t="n">
         <v>23340</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="Z51" t="n">
         <v>136</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C52" t="n">
+        <v>5960975</v>
+      </c>
+      <c r="D52" t="n">
         <v>2535198</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>1723526</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>1521781</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>69947</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>33261</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>10265</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>11876</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>8345</v>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>7968</v>
       </c>
-      <c r="L52" t="n">
+      <c r="M52" t="n">
         <v>6806</v>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>52699</v>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
         <v>578</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
         <v>811672</v>
       </c>
-      <c r="P52" t="n">
+      <c r="Q52" t="n">
         <v>147172</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="R52" t="n">
         <v>50002</v>
       </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>106313</v>
       </c>
-      <c r="S52" t="n">
+      <c r="T52" t="n">
         <v>78280</v>
       </c>
-      <c r="T52" t="n">
+      <c r="U52" t="n">
         <v>109360</v>
       </c>
-      <c r="U52" t="n">
+      <c r="V52" t="n">
         <v>94907</v>
       </c>
-      <c r="V52" t="n">
+      <c r="W52" t="n">
         <v>102091</v>
       </c>
-      <c r="W52" t="n">
+      <c r="X52" t="n">
         <v>112193</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Y52" t="n">
         <v>10546</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="Z52" t="n">
         <v>808</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C53" t="n">
+        <v>587618</v>
+      </c>
+      <c r="D53" t="n">
         <v>256289</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>183683</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>154523</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>6469</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>336</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>56</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>106</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>718</v>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>333</v>
       </c>
-      <c r="L53" t="n">
+      <c r="M53" t="n">
         <v>0</v>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>20715</v>
       </c>
-      <c r="N53" t="n">
+      <c r="O53" t="n">
         <v>427</v>
       </c>
-      <c r="O53" t="n">
+      <c r="P53" t="n">
         <v>72606</v>
       </c>
-      <c r="P53" t="n">
+      <c r="Q53" t="n">
         <v>22121</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="R53" t="n">
         <v>4003</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>4375</v>
       </c>
-      <c r="S53" t="n">
+      <c r="T53" t="n">
         <v>10288</v>
       </c>
-      <c r="T53" t="n">
+      <c r="U53" t="n">
         <v>8275</v>
       </c>
-      <c r="U53" t="n">
+      <c r="V53" t="n">
         <v>5702</v>
       </c>
-      <c r="V53" t="n">
+      <c r="W53" t="n">
         <v>7060</v>
       </c>
-      <c r="W53" t="n">
+      <c r="X53" t="n">
         <v>3268</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Y53" t="n">
         <v>7422</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="Z53" t="n">
         <v>92</v>
       </c>
     </row>
